--- a/team_rank.xlsx
+++ b/team_rank.xlsx
@@ -7,20 +7,22 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="2016-17" sheetId="3" r:id="rId1"/>
-    <sheet name="2017-18" sheetId="1" r:id="rId2"/>
-    <sheet name="2018-19" sheetId="2" r:id="rId3"/>
+    <sheet name="2015-16" sheetId="4" r:id="rId1"/>
+    <sheet name="2016-17" sheetId="3" r:id="rId2"/>
+    <sheet name="2017-18" sheetId="1" r:id="rId3"/>
+    <sheet name="2018-19" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2016-17'!$A$1:$D$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2018-19'!$A$1:$D$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2015-16'!$A$1:$D$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2016-17'!$A$1:$D$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2018-19'!$A$1:$D$31</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="64">
   <si>
     <t>points</t>
   </si>
@@ -631,7 +633,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +654,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>0.81699999999999995</v>
+        <v>0.89</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -666,7 +668,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>0.74399999999999999</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>26</v>
@@ -680,13 +682,13 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -694,13 +696,13 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>0.64600000000000002</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
@@ -708,13 +710,13 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>0.622</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -722,13 +724,13 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>0.622</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3">
         <v>6</v>
@@ -736,13 +738,13 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>0.622</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
@@ -750,13 +752,13 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>0.622</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D9" s="3">
         <v>8</v>
@@ -764,13 +766,13 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>0.59799999999999998</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>9</v>
@@ -778,13 +780,13 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>0.57299999999999995</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3">
         <v>10</v>
@@ -792,13 +794,13 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>59</v>
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D12" s="2">
         <v>11</v>
@@ -806,13 +808,13 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>0.52400000000000002</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3">
         <v>12</v>
@@ -820,13 +822,13 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>0.51200000000000001</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2">
         <v>13</v>
@@ -836,11 +838,11 @@
       <c r="A15" s="2">
         <v>0.51200000000000001</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>35</v>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D15" s="3">
         <v>14</v>
@@ -848,13 +850,13 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>0.5</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2">
         <v>15</v>
@@ -862,13 +864,13 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>0.5</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D17" s="3">
         <v>16</v>
@@ -879,10 +881,10 @@
         <v>0.5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2">
         <v>17</v>
@@ -890,13 +892,13 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>0.5</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D19" s="3">
         <v>18</v>
@@ -904,13 +906,13 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>0.45100000000000001</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2">
         <v>19</v>
@@ -918,13 +920,13 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>0.439</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D21" s="3">
         <v>20</v>
@@ -932,13 +934,13 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>0.41499999999999998</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2">
         <v>21</v>
@@ -948,11 +950,11 @@
       <c r="A23" s="2">
         <v>0.40200000000000002</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>57</v>
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D23" s="3">
         <v>22</v>
@@ -960,7 +962,7 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>0.39</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>50</v>
@@ -974,13 +976,13 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>0.378</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>29</v>
+        <v>0.39</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D25" s="3">
         <v>24</v>
@@ -988,13 +990,13 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>0.378</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2">
         <v>25</v>
@@ -1004,11 +1006,11 @@
       <c r="A27" s="2">
         <v>0.35399999999999998</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>55</v>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D27" s="3">
         <v>26</v>
@@ -1016,13 +1018,13 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D28" s="2">
         <v>27</v>
@@ -1030,13 +1032,13 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>0.317</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D29" s="3">
         <v>28</v>
@@ -1044,13 +1046,13 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>63</v>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D30" s="2">
         <v>29</v>
@@ -1058,13 +1060,13 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>0.24399999999999999</v>
+        <v>0.122</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D31" s="3">
         <v>30</v>
@@ -1077,6 +1079,456 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>0.439</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>0.378</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>0.378</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>0.317</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="3">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
@@ -1525,7 +1977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
